--- a/1_php/框架/解析yii2.xlsx
+++ b/1_php/框架/解析yii2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="8955"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>根据router分析出controller和action</t>
   </si>
@@ -75,6 +75,24 @@
     <t>widgets</t>
   </si>
   <si>
+    <t>框架model</t>
+  </si>
+  <si>
+    <t>models/base</t>
+  </si>
+  <si>
+    <t>models/</t>
+  </si>
+  <si>
+    <t>gii生成的model</t>
+  </si>
+  <si>
+    <t>继承base的model</t>
+  </si>
+  <si>
+    <t>这样做的原因。gii重新定义表事，与后面的业务隔离</t>
+  </si>
+  <si>
     <t>Configurable</t>
   </si>
   <si>
@@ -94,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>StaticInstanceInterface</t>
     </r>
     <r>
@@ -129,6 +154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>yii</t>
     </r>
     <r>
@@ -142,6 +173,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>yii</t>
     </r>
     <r>
@@ -155,6 +192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>yii</t>
     </r>
     <r>
@@ -174,6 +217,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF9B703F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>yii</t>
     </r>
     <r>
@@ -218,6 +268,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF9B703F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>yii</t>
     </r>
     <r>
@@ -267,11 +324,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,14 +365,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,7 +387,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,15 +431,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,15 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,37 +479,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,15 +500,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,31 +546,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,151 +690,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +835,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,26 +874,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,6 +898,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,166 +932,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,15 +1110,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1078,37 +1119,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1462,10 +1479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N54"/>
+  <dimension ref="A3:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1598,7 +1615,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
@@ -1611,7 +1628,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="20"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
@@ -1624,7 +1641,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="20"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
@@ -1637,7 +1654,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="20"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
@@ -1650,7 +1667,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="20"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
@@ -1663,7 +1680,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="20"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
@@ -1671,16 +1688,16 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="21" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="20"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
@@ -1688,12 +1705,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="20"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
@@ -1701,12 +1718,12 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="20"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
@@ -1714,12 +1731,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="20"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
@@ -1727,12 +1744,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="20"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
@@ -1740,12 +1757,12 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="20"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
@@ -1753,14 +1770,14 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="23" t="s">
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="20"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
@@ -1768,12 +1785,12 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="20"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
@@ -1781,12 +1798,12 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="20"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
@@ -1794,12 +1811,12 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="20"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
@@ -1807,12 +1824,12 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="20"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
@@ -1820,16 +1837,16 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="24" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="20"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
@@ -1837,12 +1854,12 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="20"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="13"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
@@ -1855,7 +1872,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="20"/>
+      <c r="L44" s="13"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
@@ -1868,7 +1885,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="20"/>
+      <c r="L45" s="13"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
@@ -1881,7 +1898,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="20"/>
+      <c r="L46" s="13"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
@@ -1894,22 +1911,22 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="20"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="4:14">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="26"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
@@ -1990,6 +2007,30 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,13 +2058,13 @@
   <sheetData>
     <row r="3" ht="19.5" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2079,7 +2120,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2131,20 +2172,20 @@
     </row>
     <row r="9" ht="19.5" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2157,7 +2198,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2195,20 +2236,20 @@
     </row>
     <row r="12" ht="19.5" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2262,7 +2303,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2280,7 +2321,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2333,12 +2374,12 @@
     </row>
     <row r="23" ht="19.5" spans="1:16">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2394,7 +2435,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2450,7 +2491,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2506,7 +2547,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2539,7 +2580,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2580,7 +2621,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2621,7 +2662,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2662,7 +2703,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2706,7 +2747,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2750,7 +2791,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
